--- a/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-ext-gender-administrativeGenderAddition.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-ext-gender-administrativeGenderAddition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:38:20+00:00</t>
+    <t>2024-02-04T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-at-ext-gender-1:The extension for the additional administrative gender codes is only applied if the administrative gender itself is set to 'other' {%resource.where(gender='other').exists()}</t>
+at-ext-gender-1:The extension for the additional administrative gender codes is only applied if the administrative gender itself is set to 'other' {%resource.where(gender='other').exists() or %resource.contact.where(gender='other').exists()}</t>
   </si>
 </sst>
 </file>
